--- a/reports/vivado/UnoptimizedSolution/power/UnoptimizedSolutionSetResetPowerReport.xlsx
+++ b/reports/vivado/UnoptimizedSolution/power/UnoptimizedSolutionSetResetPowerReport.xlsx
@@ -210,7 +210,7 @@
         <v>4.615385055541992</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>2.1784420013427734</v>
+        <v>2.2745959758758545</v>
       </c>
       <c r="E3" t="n" s="7">
         <v>37.0</v>
@@ -236,7 +236,7 @@
         <v>0.1923079937696457</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>2.403846025466919</v>
+        <v>4.807692050933838</v>
       </c>
       <c r="E4" t="n" s="7">
         <v>5.0</v>
